--- a/20210806/output/merge/summary table.xlsx
+++ b/20210806/output/merge/summary table.xlsx
@@ -6,14 +6,15 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="latest" sheetId="1" r:id="rId2"/>
+    <sheet name="peak" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>date</t>
   </si>
@@ -118,6 +119,102 @@
   </si>
   <si>
     <t>DayIcuMeSmA02S01</t>
+  </si>
+  <si>
+    <t>DayDeaMeSmA02S01_LPV</t>
+  </si>
+  <si>
+    <t>DayDeaMeSmA02S01_LPD</t>
+  </si>
+  <si>
+    <t>DayDeaUpSmA02S01_LPV</t>
+  </si>
+  <si>
+    <t>DayDeaUpSmA02S01_LPD</t>
+  </si>
+  <si>
+    <t>DayDeaMeSmA02S03_LPV</t>
+  </si>
+  <si>
+    <t>DayDeaMeSmA02S03_LPD</t>
+  </si>
+  <si>
+    <t>DayDeaUpSmA02S03_LPV</t>
+  </si>
+  <si>
+    <t>DayDeaUpSmA02S03_LPD</t>
+  </si>
+  <si>
+    <t>DayINFMeRaA02S01_LPV</t>
+  </si>
+  <si>
+    <t>DayINFMeRaA02S01_LPD</t>
+  </si>
+  <si>
+    <t>DayINFUpRaA02S01_LPV</t>
+  </si>
+  <si>
+    <t>DayINFUpRaA02S01_LPD</t>
+  </si>
+  <si>
+    <t>DayINFMeRaA02S03_LPV</t>
+  </si>
+  <si>
+    <t>DayINFMeRaA02S03_LPD</t>
+  </si>
+  <si>
+    <t>DayINFUpRaA02S03_LPV</t>
+  </si>
+  <si>
+    <t>DayINFUpRaA02S03_LPD</t>
+  </si>
+  <si>
+    <t>DayDeaMeSmA03S02_LPV</t>
+  </si>
+  <si>
+    <t>DayDeaMeSmA03S02_LPD</t>
+  </si>
+  <si>
+    <t>DayDeaUpRaA03S02_LPV</t>
+  </si>
+  <si>
+    <t>DayDeaUpRaA03S02_LPD</t>
+  </si>
+  <si>
+    <t>DayDeaMeRaA03S03_LPV</t>
+  </si>
+  <si>
+    <t>DayDeaMeRaA03S03_LPD</t>
+  </si>
+  <si>
+    <t>DayDeaUpRaA03S03_LPV</t>
+  </si>
+  <si>
+    <t>DayDeaUpRaA03S03_LPD</t>
+  </si>
+  <si>
+    <t>DayINFMeRaA03S02_LPV</t>
+  </si>
+  <si>
+    <t>DayINFMeRaA03S02_LPD</t>
+  </si>
+  <si>
+    <t>DayINFUpRaA03S02_LPV</t>
+  </si>
+  <si>
+    <t>DayINFUpRaA03S02_LPD</t>
+  </si>
+  <si>
+    <t>DayINFMeRaA03S03_LPV</t>
+  </si>
+  <si>
+    <t>DayINFMeRaA03S03_LPD</t>
+  </si>
+  <si>
+    <t>DayINFUpRaA03S03_LPV</t>
+  </si>
+  <si>
+    <t>DayINFUpRaA03S03_LPD</t>
   </si>
 </sst>
 </file>
@@ -278,46 +375,46 @@
         <v>2</v>
       </c>
       <c r="C2" s="0">
-        <v>15696</v>
+        <v>17116</v>
       </c>
       <c r="D2" s="0">
-        <v>23355</v>
+        <v>35117</v>
       </c>
       <c r="E2" s="0">
-        <v>39585</v>
+        <v>45384</v>
       </c>
       <c r="F2" s="0">
-        <v>60745</v>
+        <v>73157</v>
       </c>
       <c r="G2" s="0">
-        <v>10707229</v>
+        <v>10874069</v>
       </c>
       <c r="H2" s="0">
-        <v>11090679</v>
+        <v>11953460</v>
       </c>
       <c r="I2" s="0">
-        <v>11553875</v>
+        <v>11668217</v>
       </c>
       <c r="J2" s="0">
-        <v>12408085</v>
+        <v>12779426</v>
       </c>
       <c r="K2" s="0">
-        <v>5780021</v>
+        <v>5420867</v>
       </c>
       <c r="L2" s="0">
-        <v>8605919</v>
+        <v>7864483</v>
       </c>
       <c r="M2" s="0">
-        <v>11091780</v>
+        <v>11537664</v>
       </c>
       <c r="N2" s="0">
-        <v>15128284</v>
+        <v>16243552</v>
       </c>
       <c r="O2" s="0">
-        <v>3005846016</v>
+        <v>3262830336</v>
       </c>
       <c r="P2" s="0">
-        <v>3370543616</v>
+        <v>3805640448</v>
       </c>
       <c r="Q2" s="0"/>
       <c r="R2" s="0"/>
@@ -364,60 +461,60 @@
         <v>2887090039</v>
       </c>
       <c r="AG2" s="0">
-        <v>1133077</v>
+        <v>1180652</v>
       </c>
       <c r="AH2" s="0">
-        <v>318868</v>
+        <v>361040</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="0">
-        <v>15305</v>
+        <v>15263</v>
       </c>
       <c r="D3" s="0">
-        <v>22015</v>
+        <v>21401</v>
       </c>
       <c r="E3" s="0">
-        <v>36293</v>
+        <v>24276</v>
       </c>
       <c r="F3" s="0">
-        <v>50711</v>
+        <v>29505</v>
       </c>
       <c r="G3" s="0">
-        <v>10953812</v>
+        <v>11603034</v>
       </c>
       <c r="H3" s="0">
-        <v>11419175</v>
+        <v>13254094</v>
       </c>
       <c r="I3" s="0">
-        <v>12165863</v>
+        <v>13288900</v>
       </c>
       <c r="J3" s="0">
-        <v>13281886</v>
+        <v>14925248</v>
       </c>
       <c r="K3" s="0">
-        <v>5615352</v>
+        <v>4825758</v>
       </c>
       <c r="L3" s="0">
-        <v>7761158</v>
+        <v>6766693</v>
       </c>
       <c r="M3" s="0">
-        <v>9418293</v>
+        <v>6462811</v>
       </c>
       <c r="N3" s="0">
-        <v>12005915</v>
+        <v>9365756</v>
       </c>
       <c r="O3" s="0">
-        <v>3096896768</v>
+        <v>3492603648</v>
       </c>
       <c r="P3" s="0">
-        <v>3501292288</v>
+        <v>4121775360</v>
       </c>
       <c r="Q3" s="0"/>
       <c r="R3" s="0"/>
@@ -436,11 +533,202 @@
       <c r="AE3" s="0"/>
       <c r="AF3" s="0"/>
       <c r="AG3" s="0">
-        <v>1137785</v>
+        <v>983594</v>
       </c>
       <c r="AH3" s="0">
-        <v>317621</v>
-      </c>
+        <v>270364</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AF2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S1" t="s">
+        <v>53</v>
+      </c>
+      <c r="T1" t="s">
+        <v>54</v>
+      </c>
+      <c r="U1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W1" t="s">
+        <v>57</v>
+      </c>
+      <c r="X1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>26648</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44423</v>
+      </c>
+      <c r="C2" s="0">
+        <v>49705</v>
+      </c>
+      <c r="D2" s="1">
+        <v>44468</v>
+      </c>
+      <c r="E2" s="0">
+        <v>45384</v>
+      </c>
+      <c r="F2" s="1">
+        <v>44485</v>
+      </c>
+      <c r="G2" s="0">
+        <v>75746</v>
+      </c>
+      <c r="H2" s="1">
+        <v>44477</v>
+      </c>
+      <c r="I2" s="0">
+        <v>8852569</v>
+      </c>
+      <c r="J2" s="1">
+        <v>44422</v>
+      </c>
+      <c r="K2" s="0">
+        <v>18533956</v>
+      </c>
+      <c r="L2" s="1">
+        <v>44442</v>
+      </c>
+      <c r="M2" s="0">
+        <v>14585255</v>
+      </c>
+      <c r="N2" s="1">
+        <v>44461</v>
+      </c>
+      <c r="O2" s="0">
+        <v>23152494</v>
+      </c>
+      <c r="P2" s="1">
+        <v>44455</v>
+      </c>
+      <c r="Q2" s="0">
+        <v>15470</v>
+      </c>
+      <c r="R2" s="1">
+        <v>44486</v>
+      </c>
+      <c r="S2" s="0">
+        <v>22432</v>
+      </c>
+      <c r="T2" s="1"/>
+      <c r="U2" s="0">
+        <v>64595</v>
+      </c>
+      <c r="V2" s="1"/>
+      <c r="W2" s="0">
+        <v>88491</v>
+      </c>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="0">
+        <v>6546464</v>
+      </c>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="0">
+        <v>9358429</v>
+      </c>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="0">
+        <v>25558048</v>
+      </c>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="0">
+        <v>33235220</v>
+      </c>
+      <c r="AF2" s="1"/>
     </row>
   </sheetData>
 </worksheet>

--- a/20210806/output/merge/summary table.xlsx
+++ b/20210806/output/merge/summary table.xlsx
@@ -169,10 +169,10 @@
     <t>DayINFUpRaA02S03_LPD</t>
   </si>
   <si>
-    <t>DayDeaMeSmA03S02_LPV</t>
-  </si>
-  <si>
-    <t>DayDeaMeSmA03S02_LPD</t>
+    <t>DayDeaMeRaA03S02_LPV</t>
+  </si>
+  <si>
+    <t>DayDeaMeRaA03S02_LPD</t>
   </si>
   <si>
     <t>DayDeaUpRaA03S02_LPV</t>
@@ -699,36 +699,50 @@
         <v>15470</v>
       </c>
       <c r="R2" s="1">
-        <v>44486</v>
+        <v>44448</v>
       </c>
       <c r="S2" s="0">
         <v>22432</v>
       </c>
-      <c r="T2" s="1"/>
+      <c r="T2" s="1">
+        <v>44444</v>
+      </c>
       <c r="U2" s="0">
         <v>64595</v>
       </c>
-      <c r="V2" s="1"/>
+      <c r="V2" s="1">
+        <v>44441</v>
+      </c>
       <c r="W2" s="0">
         <v>88491</v>
       </c>
-      <c r="X2" s="1"/>
+      <c r="X2" s="1">
+        <v>44442</v>
+      </c>
       <c r="Y2" s="0">
         <v>6546464</v>
       </c>
-      <c r="Z2" s="1"/>
+      <c r="Z2" s="1">
+        <v>44438</v>
+      </c>
       <c r="AA2" s="0">
         <v>9358429</v>
       </c>
-      <c r="AB2" s="1"/>
+      <c r="AB2" s="1">
+        <v>44434</v>
+      </c>
       <c r="AC2" s="0">
         <v>25558048</v>
       </c>
-      <c r="AD2" s="1"/>
+      <c r="AD2" s="1">
+        <v>44431</v>
+      </c>
       <c r="AE2" s="0">
-        <v>33235220</v>
-      </c>
-      <c r="AF2" s="1"/>
+        <v>33235219</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>44432</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>
